--- a/web_hopefuture/web/scripts/lib/jquery/jquery提供的功能和需要完善补充的功能.xlsx
+++ b/web_hopefuture/web/scripts/lib/jquery/jquery提供的功能和需要完善补充的功能.xlsx
@@ -264,9 +264,6 @@
     <t>Selects the first matched element.</t>
   </si>
   <si>
-    <t>jQuery(':first')</t>
-  </si>
-  <si>
     <t>$("tr:first").css("font-style", "italic");</t>
   </si>
   <si>
@@ -1846,10 +1843,6 @@
   </si>
   <si>
     <t xml:space="preserve">.closest( selectors [ , context ]  ) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery(':gt(index)')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2575,10 +2568,6 @@
   </si>
   <si>
     <t>event.isPropagationStopped()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Returns whether event.stopPropagation() was ever called on this event object. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4491,10 +4480,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">jQuery.isFunction( obj ) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Determine if the parameter passed is a Javascript function object.
 Note: As of jQuery 1.3, functions provided by the browser like 'alert', and DOM element methods like 'getAttribute', are not guaranteed to be detected as functions in browsers such as Internet Explorer.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5381,6 +5366,22 @@
   </si>
   <si>
     <t>大于index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns whether event.stopPropagation() was ever called on this event object. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">jQuery.isFunction( obj ) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery(':gt(index)')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery(':first')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5924,8 +5925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6012,7 +6013,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6026,7 +6027,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -6090,7 +6091,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -6300,10 +6301,10 @@
         <v>1.25</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>74</v>
@@ -6314,13 +6315,13 @@
         <v>1.26</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -6328,16 +6329,16 @@
         <v>1.27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>462</v>
+        <v>1123</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -6345,13 +6346,13 @@
         <v>1.28</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="D30" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -6359,13 +6360,13 @@
         <v>1.29</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -6373,13 +6374,13 @@
         <v>1.3</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -6387,13 +6388,13 @@
         <v>1.31</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -6401,13 +6402,13 @@
         <v>1.32</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="D34" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -6415,13 +6416,13 @@
         <v>1.33</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -6429,13 +6430,13 @@
         <v>1.34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -6443,13 +6444,13 @@
         <v>1.35</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -6457,13 +6458,13 @@
         <v>1.36</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -6471,16 +6472,16 @@
         <v>1.37</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6488,13 +6489,13 @@
         <v>1.38</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -6502,13 +6503,13 @@
         <v>1.39</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -6516,13 +6517,13 @@
         <v>1.4</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -6530,13 +6531,13 @@
         <v>1.41</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -6544,13 +6545,13 @@
         <v>1.42</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -6558,13 +6559,13 @@
         <v>1.43</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -6572,13 +6573,13 @@
         <v>1.44</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -6586,13 +6587,13 @@
         <v>1.45</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -6600,13 +6601,13 @@
         <v>1.46</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -6614,13 +6615,13 @@
         <v>1.47</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -6628,13 +6629,13 @@
         <v>1.48</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6642,13 +6643,13 @@
         <v>1.49</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" t="s">
         <v>143</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D51" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -6656,13 +6657,13 @@
         <v>1.5</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" t="s">
         <v>146</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D52" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -6670,13 +6671,13 @@
         <v>1.51</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" t="s">
         <v>149</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D53" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6684,13 +6685,13 @@
         <v>1.52</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" t="s">
         <v>152</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D54" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -6698,13 +6699,13 @@
         <v>1.53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -6746,7 +6747,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -6754,13 +6755,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>856</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>858</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
@@ -6768,16 +6769,16 @@
         <v>1.2</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>854</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>857</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>862</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>860</v>
-      </c>
       <c r="E3" s="16" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -6785,13 +6786,13 @@
         <v>2.1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -6799,13 +6800,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -6813,13 +6814,13 @@
         <v>3.1</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -6827,13 +6828,13 @@
         <v>3.2</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -6841,13 +6842,13 @@
         <v>3.3</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -6855,13 +6856,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -6869,13 +6870,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -6883,13 +6884,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -6897,13 +6898,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -6911,13 +6912,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -6925,13 +6926,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
@@ -6939,13 +6940,13 @@
         <v>10.1</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -6953,10 +6954,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="243" x14ac:dyDescent="0.15">
@@ -6964,13 +6965,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -6978,24 +6979,24 @@
         <v>12</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="B19" s="14" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
   </sheetData>
@@ -7009,8 +7010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7037,7 +7038,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -7045,15 +7046,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" s="25" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -7061,7 +7062,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="23" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -7069,7 +7070,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="23" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
@@ -7077,7 +7078,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" s="23" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -7085,7 +7086,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" s="23" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -7093,7 +7094,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="24" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -7101,7 +7102,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" s="23" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -7109,7 +7110,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="23" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -7117,7 +7118,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" s="23" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -7125,7 +7126,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="24" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -7133,7 +7134,7 @@
     </row>
     <row r="13" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="24" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
@@ -7144,13 +7145,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -7158,13 +7159,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -7172,13 +7173,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="229.5" x14ac:dyDescent="0.15">
@@ -7186,13 +7187,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
@@ -7200,13 +7201,13 @@
         <v>6</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="162" x14ac:dyDescent="0.15">
@@ -7214,13 +7215,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>931</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>934</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>937</v>
-      </c>
       <c r="D20" s="12" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
@@ -7228,13 +7229,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>933</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>936</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>939</v>
-      </c>
       <c r="D21" s="12" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="189" x14ac:dyDescent="0.15">
@@ -7242,13 +7243,13 @@
         <v>9</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="135" x14ac:dyDescent="0.15">
@@ -7256,13 +7257,13 @@
         <v>10</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
@@ -7270,13 +7271,13 @@
         <v>11</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="162" x14ac:dyDescent="0.15">
@@ -7284,13 +7285,13 @@
         <v>12</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>948</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>951</v>
-      </c>
       <c r="D25" s="12" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -7298,13 +7299,13 @@
         <v>13</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="189" x14ac:dyDescent="0.15">
@@ -7312,13 +7313,13 @@
         <v>14</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>955</v>
+        <v>1122</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="81" x14ac:dyDescent="0.15">
@@ -7326,13 +7327,13 @@
         <v>15</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="108" x14ac:dyDescent="0.15">
@@ -7340,139 +7341,139 @@
         <v>16</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B30" s="14" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B31" s="14" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B32" s="14" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="243" x14ac:dyDescent="0.15">
       <c r="B33" s="14" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B34" s="14" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B35" s="14" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B36" s="14" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B37" s="14" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B38" s="14" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B39" s="14" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="229.5" x14ac:dyDescent="0.15">
       <c r="B40" s="14" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="202.5" x14ac:dyDescent="0.15">
       <c r="B41" s="14" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
@@ -7530,107 +7531,107 @@
         <v>2</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="B2" s="18" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B3" s="18" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B4" s="18" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="18" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="18" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B7" s="18" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="243" x14ac:dyDescent="0.15">
       <c r="B8" s="18" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="270" x14ac:dyDescent="0.15">
       <c r="B9" s="18" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="310.5" x14ac:dyDescent="0.15">
       <c r="B10" s="18" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="18" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B12" s="18" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
   </sheetData>
@@ -7671,174 +7672,174 @@
         <v>2</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B2" s="20" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B3" s="20" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B4" s="20" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B5" s="20" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="20" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B7" s="20" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B8" s="20" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="B9" s="20" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B10" s="20" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B11" s="20" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="20" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="20" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B14" s="20" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B15" s="20" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B16" s="20" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B17" s="20" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B18" s="20" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B19" s="20" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="175.5" x14ac:dyDescent="0.15">
       <c r="B20" s="20" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
     </row>
   </sheetData>
@@ -7879,69 +7880,69 @@
         <v>2</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B2" s="20" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="B3" s="20" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B4" s="20" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="B5" s="20" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="20" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" s="20" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="20" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
   </sheetData>
@@ -7982,18 +7983,18 @@
         <v>2</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B2" s="20" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
   </sheetData>
@@ -8034,7 +8035,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -8042,13 +8043,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -8056,7 +8057,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8064,13 +8065,13 @@
         <v>2.1</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -8078,52 +8079,52 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -8131,16 +8132,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>178</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -8148,7 +8149,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -8156,13 +8157,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -8170,38 +8171,38 @@
         <v>4.2</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -8209,7 +8210,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -8217,13 +8218,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -8231,43 +8232,43 @@
         <v>5.2</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -8275,13 +8276,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -8289,13 +8290,13 @@
         <v>7</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -8303,13 +8304,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -8317,10 +8318,10 @@
         <v>9</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="229.5" x14ac:dyDescent="0.15">
@@ -8328,13 +8329,13 @@
         <v>9.1</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="162" x14ac:dyDescent="0.15">
@@ -8342,13 +8343,13 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -8356,10 +8357,10 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -8367,13 +8368,13 @@
         <v>9.4</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -8381,7 +8382,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -8389,13 +8390,13 @@
         <v>10.1</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
@@ -8403,16 +8404,16 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -8472,7 +8473,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -8480,16 +8481,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>239</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -8497,13 +8498,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>241</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -8511,13 +8512,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -8525,16 +8526,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -8542,13 +8543,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>249</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="135" x14ac:dyDescent="0.15">
@@ -8556,13 +8557,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>253</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -8570,16 +8571,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>258</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -8587,13 +8588,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>262</v>
-      </c>
       <c r="D9" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -8601,10 +8602,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>263</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -8612,13 +8613,13 @@
         <v>9.1</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>265</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -8626,13 +8627,13 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>267</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -8640,13 +8641,13 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>269</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -8654,13 +8655,13 @@
         <v>9.4</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>271</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.15">
@@ -8668,16 +8669,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="E15" s="12" t="s">
         <v>278</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -8685,16 +8686,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>283</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -8702,13 +8703,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>285</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -8716,10 +8717,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>288</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="81" x14ac:dyDescent="0.15">
@@ -8727,13 +8728,13 @@
         <v>13.1</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>290</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
@@ -8741,13 +8742,13 @@
         <v>13.2</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>292</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -8755,10 +8756,10 @@
         <v>13.3</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>294</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -8766,10 +8767,10 @@
         <v>13.4</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>296</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -8777,13 +8778,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>300</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -8791,13 +8792,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>303</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -8805,13 +8806,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>306</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -8819,13 +8820,13 @@
         <v>17</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>309</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -8833,10 +8834,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>312</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="81" x14ac:dyDescent="0.15">
@@ -8844,13 +8845,13 @@
         <v>18.100000000000001</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
@@ -8858,13 +8859,13 @@
         <v>18.2</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -8872,13 +8873,13 @@
         <v>19</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>319</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -8886,13 +8887,13 @@
         <v>20</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>322</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -8900,13 +8901,13 @@
         <v>21</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>325</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -8914,13 +8915,13 @@
         <v>22</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>328</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -8928,13 +8929,13 @@
         <v>23</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>331</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -8942,13 +8943,13 @@
         <v>24</v>
       </c>
       <c r="B35" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>335</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -8956,13 +8957,13 @@
         <v>25</v>
       </c>
       <c r="B36" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>338</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
@@ -8970,13 +8971,13 @@
         <v>26</v>
       </c>
       <c r="B37" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>341</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -8984,13 +8985,13 @@
         <v>27</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -8998,13 +8999,13 @@
         <v>28</v>
       </c>
       <c r="B39" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>346</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -9046,7 +9047,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9054,10 +9055,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>350</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -9065,10 +9066,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -9076,10 +9077,10 @@
         <v>1.2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9087,13 +9088,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -9101,10 +9102,10 @@
         <v>2.1</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -9112,10 +9113,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9123,13 +9124,13 @@
         <v>3.1</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>360</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9137,7 +9138,7 @@
         <v>3.2</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9145,13 +9146,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>364</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -9159,7 +9160,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -9167,16 +9168,16 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="E12" s="16" t="s">
         <v>370</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9184,13 +9185,13 @@
         <v>5.2</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>372</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -9198,10 +9199,10 @@
         <v>5.3</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -9209,13 +9210,13 @@
         <v>5.4</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>378</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9223,13 +9224,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>380</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -9237,13 +9238,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>385</v>
-      </c>
       <c r="D17" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -9251,7 +9252,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9259,13 +9260,13 @@
         <v>8.1</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>387</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -9273,13 +9274,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>390</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -9287,10 +9288,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="216" x14ac:dyDescent="0.15">
@@ -9298,10 +9299,10 @@
         <v>8.4</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -9309,13 +9310,13 @@
         <v>9</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="E23" s="16" t="s">
         <v>397</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9323,13 +9324,13 @@
         <v>10</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>399</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9337,13 +9338,13 @@
         <v>11</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9351,13 +9352,13 @@
         <v>12.1</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>405</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9365,13 +9366,13 @@
         <v>12.2</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>407</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -9379,7 +9380,7 @@
         <v>12.3</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9387,13 +9388,13 @@
         <v>13.1</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>412</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -9401,13 +9402,13 @@
         <v>13.2</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>416</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -9415,10 +9416,10 @@
         <v>13.3</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -9426,16 +9427,16 @@
         <v>14</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="D32" s="12" t="s">
+      <c r="E32" s="16" t="s">
         <v>421</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9443,13 +9444,13 @@
         <v>15</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>424</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9457,13 +9458,13 @@
         <v>16</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>427</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -9471,13 +9472,13 @@
         <v>17.100000000000001</v>
       </c>
       <c r="B35" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>429</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -9485,13 +9486,13 @@
         <v>17.2</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -9499,7 +9500,7 @@
         <v>17.3</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -9507,13 +9508,13 @@
         <v>18</v>
       </c>
       <c r="B38" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>435</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -9521,13 +9522,13 @@
         <v>19</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C39" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>439</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -9535,16 +9536,16 @@
         <v>20</v>
       </c>
       <c r="B40" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="E40" s="16" t="s">
         <v>443</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -9552,13 +9553,13 @@
         <v>21.1</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9566,7 +9567,7 @@
         <v>21.2</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9574,13 +9575,13 @@
         <v>22</v>
       </c>
       <c r="B43" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D43" s="12" t="s">
         <v>449</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9588,13 +9589,13 @@
         <v>23.1</v>
       </c>
       <c r="B44" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="D44" s="12" t="s">
         <v>452</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -9602,13 +9603,13 @@
         <v>23.2</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
@@ -9616,7 +9617,7 @@
         <v>23.3</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -9624,10 +9625,10 @@
         <v>23.4</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="216" x14ac:dyDescent="0.15">
@@ -9635,16 +9636,16 @@
         <v>24</v>
       </c>
       <c r="B48" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>465</v>
-      </c>
       <c r="D48" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>464</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9652,13 +9653,13 @@
         <v>25</v>
       </c>
       <c r="B49" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>469</v>
-      </c>
       <c r="D49" s="12" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -9666,13 +9667,13 @@
         <v>26.1</v>
       </c>
       <c r="B50" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="D50" s="12" t="s">
         <v>470</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -9680,10 +9681,10 @@
         <v>26.2</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9691,10 +9692,10 @@
         <v>27</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -9702,16 +9703,16 @@
         <v>28</v>
       </c>
       <c r="B53" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>477</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9719,13 +9720,13 @@
         <v>29</v>
       </c>
       <c r="B54" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="C54" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>483</v>
-      </c>
       <c r="D54" s="12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -9733,13 +9734,13 @@
         <v>30.1</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9747,13 +9748,13 @@
         <v>30.2</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -9761,13 +9762,13 @@
         <v>31.1</v>
       </c>
       <c r="B57" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>492</v>
-      </c>
       <c r="D57" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9775,13 +9776,13 @@
         <v>31.2</v>
       </c>
       <c r="B58" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="C58" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>495</v>
-      </c>
       <c r="D58" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -9789,13 +9790,13 @@
         <v>32.1</v>
       </c>
       <c r="B59" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>498</v>
-      </c>
       <c r="D59" s="12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9803,13 +9804,13 @@
         <v>32.200000000000003</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9817,7 +9818,7 @@
         <v>32.299999999999997</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -9825,13 +9826,13 @@
         <v>33.1</v>
       </c>
       <c r="B62" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="C62" s="12" t="s">
-        <v>505</v>
-      </c>
       <c r="D62" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -9839,13 +9840,13 @@
         <v>33.200000000000003</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9853,7 +9854,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -9861,10 +9862,10 @@
         <v>33.4</v>
       </c>
       <c r="B65" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>509</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -9872,13 +9873,13 @@
         <v>34</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -9886,16 +9887,16 @@
         <v>35.1</v>
       </c>
       <c r="B67" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="E67" s="16" t="s">
         <v>514</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9903,13 +9904,13 @@
         <v>35.200000000000003</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -9917,10 +9918,10 @@
         <v>35.299999999999997</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9928,13 +9929,13 @@
         <v>36.1</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9942,10 +9943,10 @@
         <v>36.200000000000003</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -9953,10 +9954,10 @@
         <v>36.299999999999997</v>
       </c>
       <c r="B72" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="C72" s="12" t="s">
         <v>527</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -9964,13 +9965,13 @@
         <v>37.1</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -9978,10 +9979,10 @@
         <v>37.200000000000003</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9989,13 +9990,13 @@
         <v>38</v>
       </c>
       <c r="B75" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="C75" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="D75" s="12" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -10003,13 +10004,13 @@
         <v>39.1</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -10017,10 +10018,10 @@
         <v>39.200000000000003</v>
       </c>
       <c r="B77" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>540</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -10062,7 +10063,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -10070,10 +10071,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -10114,143 +10115,143 @@
         <v>2</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="405" x14ac:dyDescent="0.15">
       <c r="B2" s="14" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B3" s="14" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B4" s="14" t="s">
+        <v>989</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>993</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>997</v>
-      </c>
       <c r="D4" s="12" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="B5" s="20" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="20" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B7" s="14" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="216" x14ac:dyDescent="0.15">
       <c r="B8" s="14" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B9" s="14" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B10" s="14" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="14" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="14" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="14" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B14" s="14" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B15" s="14" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B16" s="14" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B17" s="14" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="14" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
   </sheetData>
@@ -10264,8 +10265,8 @@
   <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10291,7 +10292,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -10299,13 +10300,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.15">
@@ -10313,10 +10314,10 @@
         <v>1.2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -10324,10 +10325,10 @@
         <v>1.3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -10335,10 +10336,10 @@
         <v>2.1</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -10346,7 +10347,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -10354,10 +10355,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -10365,13 +10366,13 @@
         <v>3.1</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -10379,7 +10380,7 @@
         <v>3.2</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -10387,10 +10388,10 @@
         <v>3.3</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -10398,10 +10399,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -10409,7 +10410,7 @@
         <v>4.2</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -10417,7 +10418,7 @@
         <v>4.3</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -10425,10 +10426,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -10436,7 +10437,7 @@
         <v>5.2</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -10444,7 +10445,7 @@
         <v>5.3</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="189" x14ac:dyDescent="0.15">
@@ -10452,16 +10453,16 @@
         <v>6.1</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -10469,7 +10470,7 @@
         <v>6.2</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -10477,7 +10478,7 @@
         <v>6.3</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
@@ -10485,16 +10486,16 @@
         <v>7.1</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>584</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>591</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>585</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -10502,10 +10503,10 @@
         <v>7.2</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -10513,7 +10514,7 @@
         <v>7.3</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
@@ -10521,16 +10522,16 @@
         <v>8.1</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -10538,7 +10539,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -10546,13 +10547,13 @@
         <v>9</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>598</v>
-      </c>
       <c r="D25" s="12" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="270" x14ac:dyDescent="0.15">
@@ -10560,13 +10561,13 @@
         <v>10</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>601</v>
-      </c>
       <c r="D26" s="12" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -10574,13 +10575,13 @@
         <v>11</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -10588,10 +10589,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>604</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -10599,13 +10600,13 @@
         <v>13</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>609</v>
-      </c>
       <c r="D29" s="12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="229.5" x14ac:dyDescent="0.15">
@@ -10613,13 +10614,13 @@
         <v>14</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>612</v>
-      </c>
       <c r="D30" s="12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -10627,10 +10628,10 @@
         <v>15</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>614</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -10638,13 +10639,13 @@
         <v>16</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -10652,10 +10653,10 @@
         <v>17</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -10663,10 +10664,10 @@
         <v>18</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -10674,10 +10675,10 @@
         <v>19</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -10685,10 +10686,10 @@
         <v>20</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -10696,13 +10697,13 @@
         <v>21</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -10710,13 +10711,13 @@
         <v>22</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -10724,10 +10725,10 @@
         <v>23</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
@@ -10735,13 +10736,13 @@
         <v>24</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -10749,10 +10750,10 @@
         <v>25</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="135" x14ac:dyDescent="0.15">
@@ -10760,16 +10761,16 @@
         <v>26</v>
       </c>
       <c r="B42" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>642</v>
-      </c>
       <c r="D42" s="12" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -10777,10 +10778,10 @@
         <v>27.1</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -10788,7 +10789,7 @@
         <v>27.2</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
@@ -10796,7 +10797,7 @@
         <v>27.3</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -10804,10 +10805,10 @@
         <v>28.1</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -10815,10 +10816,10 @@
         <v>28.2</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -10826,10 +10827,10 @@
         <v>29.1</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -10837,7 +10838,7 @@
         <v>29.2</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -10845,16 +10846,16 @@
         <v>30.1</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
@@ -10862,13 +10863,13 @@
         <v>30.2</v>
       </c>
       <c r="B51" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="D51" s="12" t="s">
         <v>653</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -10876,13 +10877,13 @@
         <v>31.1</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
@@ -10890,10 +10891,10 @@
         <v>31.2</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -10901,10 +10902,10 @@
         <v>31.3</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -10912,13 +10913,13 @@
         <v>32.1</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -10926,7 +10927,7 @@
         <v>32.200000000000003</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
@@ -10934,7 +10935,7 @@
         <v>32.299999999999997</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -10942,13 +10943,13 @@
         <v>33.1</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -10956,7 +10957,7 @@
         <v>33.200000000000003</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -10964,10 +10965,10 @@
         <v>33.299999999999997</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -10975,13 +10976,13 @@
         <v>34.1</v>
       </c>
       <c r="B61" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="E61" s="16" t="s">
         <v>680</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>679</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -10989,7 +10990,7 @@
         <v>34.200000000000003</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
@@ -10997,7 +10998,7 @@
         <v>34.299999999999997</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -11005,13 +11006,13 @@
         <v>35.1</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -11019,7 +11020,7 @@
         <v>35.200000000000003</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -11027,13 +11028,13 @@
         <v>36.1</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -11041,7 +11042,7 @@
         <v>36.200000000000003</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -11049,10 +11050,10 @@
         <v>36.299999999999997</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
@@ -11060,13 +11061,13 @@
         <v>37.1</v>
       </c>
       <c r="B69" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>697</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>700</v>
-      </c>
       <c r="D69" s="12" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -11074,7 +11075,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
@@ -11082,7 +11083,7 @@
         <v>37.299999999999997</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -11090,13 +11091,13 @@
         <v>38.1</v>
       </c>
       <c r="B72" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="D72" s="12" t="s">
         <v>701</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>705</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -11104,7 +11105,7 @@
         <v>38.200000000000003</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
@@ -11112,7 +11113,7 @@
         <v>38.299999999999997</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
@@ -11120,13 +11121,13 @@
         <v>39.1</v>
       </c>
       <c r="B75" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>707</v>
+      </c>
+      <c r="D75" s="12" t="s">
         <v>706</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>710</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -11134,7 +11135,7 @@
         <v>39.200000000000003</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
@@ -11142,7 +11143,7 @@
         <v>39.299999999999997</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -11150,13 +11151,13 @@
         <v>40.1</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -11164,7 +11165,7 @@
         <v>40.200000000000003</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
@@ -11172,7 +11173,7 @@
         <v>40.299999999999997</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -11180,13 +11181,13 @@
         <v>41.1</v>
       </c>
       <c r="B81" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="D81" s="12" t="s">
         <v>716</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>720</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -11194,7 +11195,7 @@
         <v>41.2</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
@@ -11202,7 +11203,7 @@
         <v>41.3</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="108" x14ac:dyDescent="0.15">
@@ -11210,13 +11211,13 @@
         <v>42.1</v>
       </c>
       <c r="B84" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="D84" s="12" t="s">
         <v>721</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>725</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -11224,7 +11225,7 @@
         <v>42.2</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
@@ -11232,7 +11233,7 @@
         <v>42.3</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="162" x14ac:dyDescent="0.15">
@@ -11240,13 +11241,13 @@
         <v>43.1</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
@@ -11254,10 +11255,10 @@
         <v>43.2</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
@@ -11265,13 +11266,13 @@
         <v>44.1</v>
       </c>
       <c r="B89" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="C89" s="12" t="s">
         <v>731</v>
       </c>
-      <c r="C89" s="12" t="s">
-        <v>734</v>
-      </c>
       <c r="D89" s="12" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
@@ -11279,7 +11280,7 @@
         <v>44.2</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
@@ -11287,13 +11288,13 @@
         <v>45.1</v>
       </c>
       <c r="B91" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="D91" s="12" t="s">
         <v>735</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>739</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -11301,7 +11302,7 @@
         <v>45.2</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -11309,7 +11310,7 @@
         <v>45.3</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
@@ -11317,13 +11318,13 @@
         <v>46.1</v>
       </c>
       <c r="B94" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="C94" s="12" t="s">
         <v>741</v>
       </c>
-      <c r="C94" s="12" t="s">
-        <v>744</v>
-      </c>
       <c r="D94" s="12" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="162" x14ac:dyDescent="0.15">
@@ -11331,10 +11332,10 @@
         <v>46.2</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="81" x14ac:dyDescent="0.15">
@@ -11342,13 +11343,13 @@
         <v>47</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -11356,13 +11357,13 @@
         <v>48.1</v>
       </c>
       <c r="B97" s="14" t="s">
+        <v>745</v>
+      </c>
+      <c r="C97" s="12" t="s">
         <v>748</v>
       </c>
-      <c r="C97" s="12" t="s">
-        <v>751</v>
-      </c>
       <c r="D97" s="12" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -11370,7 +11371,7 @@
         <v>48.2</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
@@ -11378,7 +11379,7 @@
         <v>48.3</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -11386,13 +11387,13 @@
         <v>49.1</v>
       </c>
       <c r="B100" s="14" t="s">
+        <v>750</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="D100" s="12" t="s">
         <v>753</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>757</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -11400,7 +11401,7 @@
         <v>49.2</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
@@ -11408,7 +11409,7 @@
         <v>49.3</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -11416,16 +11417,16 @@
         <v>50.1</v>
       </c>
       <c r="B103" s="14" t="s">
+        <v>755</v>
+      </c>
+      <c r="C103" s="12" t="s">
         <v>758</v>
       </c>
-      <c r="C103" s="12" t="s">
-        <v>761</v>
-      </c>
       <c r="D103" s="12" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -11433,7 +11434,7 @@
         <v>50.2</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
@@ -11441,7 +11442,7 @@
         <v>50.3</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -11449,16 +11450,16 @@
         <v>51.1</v>
       </c>
       <c r="B106" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>766</v>
+      </c>
+      <c r="D106" s="12" t="s">
         <v>764</v>
       </c>
-      <c r="C106" s="12" t="s">
-        <v>769</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>767</v>
-      </c>
       <c r="E106" s="16" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -11466,7 +11467,7 @@
         <v>51.2</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
@@ -11474,7 +11475,7 @@
         <v>51.3</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -11482,16 +11483,16 @@
         <v>52</v>
       </c>
       <c r="B109" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="C109" s="12" t="s">
         <v>770</v>
       </c>
-      <c r="C109" s="12" t="s">
-        <v>773</v>
-      </c>
       <c r="D109" s="12" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="81" x14ac:dyDescent="0.15">
@@ -11499,13 +11500,13 @@
         <v>53.1</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -11513,10 +11514,10 @@
         <v>53.2</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="283.5" x14ac:dyDescent="0.15">
@@ -11524,16 +11525,16 @@
         <v>54</v>
       </c>
       <c r="B112" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C112" s="12" t="s">
         <v>779</v>
       </c>
-      <c r="C112" s="12" t="s">
-        <v>782</v>
-      </c>
       <c r="D112" s="12" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -11541,10 +11542,10 @@
         <v>55.1</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
@@ -11552,7 +11553,7 @@
         <v>55.2</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
@@ -11560,10 +11561,10 @@
         <v>55.3</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -11571,13 +11572,13 @@
         <v>56.1</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
@@ -11585,7 +11586,7 @@
         <v>56.2</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -11593,10 +11594,10 @@
         <v>56.3</v>
       </c>
       <c r="B118" s="14" t="s">
+        <v>788</v>
+      </c>
+      <c r="C118" s="12" t="s">
         <v>791</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
@@ -11604,7 +11605,7 @@
         <v>56.4</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
@@ -11612,10 +11613,10 @@
         <v>56.5</v>
       </c>
       <c r="B120" s="14" t="s">
+        <v>790</v>
+      </c>
+      <c r="C120" s="12" t="s">
         <v>793</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -11623,13 +11624,13 @@
         <v>57.1</v>
       </c>
       <c r="B121" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="C121" s="12" t="s">
         <v>797</v>
       </c>
-      <c r="C121" s="12" t="s">
-        <v>800</v>
-      </c>
       <c r="D121" s="12" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -11637,7 +11638,7 @@
         <v>57.2</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>
@@ -11678,7 +11679,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -11686,10 +11687,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -11697,10 +11698,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -11708,13 +11709,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -11722,13 +11723,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
@@ -11736,16 +11737,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>808</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>811</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>814</v>
-      </c>
       <c r="D6" s="12" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -11753,13 +11754,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -11767,13 +11768,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -11781,13 +11782,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -11795,13 +11796,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -11809,13 +11810,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
@@ -11823,16 +11824,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>828</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>830</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>832</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>831</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="189" x14ac:dyDescent="0.15">
@@ -11840,13 +11841,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="108" x14ac:dyDescent="0.15">
@@ -11854,13 +11855,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -11868,13 +11869,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="189" x14ac:dyDescent="0.15">
@@ -11882,16 +11883,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>843</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>845</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>844</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -11899,13 +11900,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -11913,16 +11914,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>849</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>850</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>852</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>851</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -11930,10 +11931,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
   </sheetData>
